--- a/imageCreationExcel/back/darkyobi/darkyobi_6.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_6.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.187166039702753</v>
+        <v>0.8516894630896339</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1094269647399804</v>
+        <v>2.173570090586532</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>28.39284427973318</v>
+        <v>1.182696972775602</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_0_contrast1.2_sharpness0.11_equalization28.0.jpg</t>
+          <t>1_E_sharpness0.85_brightness2.2_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.350155321222803</v>
+        <v>0.9049795894598411</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9178169586996809</v>
+        <v>0.3759214209633109</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22.3650166716916</v>
+        <v>5.319172000194402</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_1_sharpness0.35_contrast0.92_brightness22.0.jpg</t>
+          <t>2_3_contrast0.9_sharpness0.38_equalization5.3.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.024932439188306</v>
+        <v>1.104584523760566</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1313769084083189</v>
+        <v>0.2903744586846274</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.16913961244213</v>
+        <v>11.7800259778324</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_T_contrast1.0_sharpness0.13_equalization15.0.jpg</t>
+          <t>3_3_contrast1.1_sharpness0.29_brightness12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7518734624002934</v>
+        <v>0.9982722867647815</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,22 +629,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2926930145173057</v>
+        <v>0.05050349527186448</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.71016519475721</v>
+        <v>28.99332184564943</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_gamma0.75_sharpness0.29_brightness17.0.jpg</t>
+          <t>4_C_gamma1.0_sharpness0.051_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1439345410982714</v>
+        <v>1.068886746237105</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.075774715064977</v>
+        <v>0.9173494067281119</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.2084961122456</v>
+        <v>15.63467072754393</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_sharpness0.14_contrast1.1_brightness17.0.jpg</t>
+          <t>5_3_contrast1.1_sharpness0.92_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,24 +696,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5942236273581968</v>
+        <v>1.121878167987025</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.021312375744168</v>
+        <v>0.9987794638387091</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15.15805160701331</v>
+        <v>6.305893081034593</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_S_sharpness0.59_contrast1.0_equalization15.0.jpg</t>
+          <t>6_C_contrast1.1_gamma1.0_equalization6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.09993389177857193</v>
+        <v>1.182034084544013</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.15759170025053</v>
+        <v>0.6514820110533681</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.6127260350808277</v>
+        <v>23.67682170402724</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_P_brightness0.1_contrast1.2_gamma0.61.jpg</t>
+          <t>7_0_contrast1.2_gamma0.65_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5411804264669579</v>
+        <v>0.573817752490866</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.08391423151533473</v>
+        <v>1.135275210591166</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>13.8596090183901</v>
+        <v>23.12776776349295</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_S_gamma0.54_sharpness0.084_equalization14.0.jpg</t>
+          <t>8_9_gamma0.57_contrast1.1_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6748624923322629</v>
+        <v>1.073918929128979</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8510957321311144</v>
+        <v>0.8207224813006214</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6983714410892664</v>
+        <v>22.91557916159859</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_sharpness0.67_contrast0.85_gamma0.7.jpg</t>
+          <t>9_7_contrast1.1_gamma0.82_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3448036037350692</v>
+        <v>0.08953267687404354</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8166946415193117</v>
+        <v>23.06819883864066</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10.80046913377806</v>
+        <v>0.6607345312179682</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_3_sharpness0.34_gamma0.82_equalization11.0.jpg</t>
+          <t>10_3_sharpness0.09_brightness23.0_gamma0.66.jpg</t>
         </is>
       </c>
     </row>
@@ -906,16 +906,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3999217760771647</v>
+        <v>1.180463051473845</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.712734049108445</v>
+        <v>2.10741169106881</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7949812906486911</v>
+        <v>1.013997731781299</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_I_sharpness0.4_brightness4.7_gamma0.79.jpg</t>
+          <t>11_8_contrast1.2_brightness2.1_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1.131512236319309</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9441435465659066</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>25.60966429520109</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9456372783551187</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H13" t="n">
-        <v>0.6956379755520825</v>
+        <v>0.7660658643239404</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_brightness26.0_contrast0.95_sharpness0.7.jpg</t>
+          <t>12_T_contrast1.1_gamma0.94_brightness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.110593221887681</v>
+        <v>0.01412472196514447</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8082721414115781</v>
+        <v>0.9375872064542917</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.1966516928471462</v>
+        <v>1.179209852680501</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_contrast1.1_gamma0.81_sharpness0.2.jpg</t>
+          <t>13_I_sharpness0.014_gamma0.94_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22.51182728404051</v>
+        <v>0.5422686080157839</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9803551772230675</v>
+        <v>0.802742111103746</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5507641523963637</v>
+        <v>16.58142381937219</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_brightness23.0_contrast0.98_sharpness0.55.jpg</t>
+          <t>14_7_gamma0.54_contrast0.8_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.095613205480148</v>
+        <v>0.3708516661640759</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.005848329661572671</v>
+        <v>1.048499442888432</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8498237621142293</v>
+        <v>4.587623127620967</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_contrast1.1_sharpness0.0058_gamma0.85.jpg</t>
+          <t>15_0_sharpness0.37_gamma1.0_equalization4.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.630030884292777</v>
+        <v>0.6994579732243728</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.182866236234933</v>
+        <v>0.8629248921522046</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.6276679127806278</v>
+        <v>7.243794751580788</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_I_gamma0.63_contrast1.2_sharpness0.63.jpg</t>
+          <t>16_3_sharpness0.7_gamma0.86_brightness7.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.7740997634772455</v>
+        <v>0.7149213198289156</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9333187895162713</v>
+        <v>0.9682156616585568</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8.545333241803149</v>
+        <v>17.05619936697251</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_8_sharpness0.77_gamma0.93_brightness8.5.jpg</t>
+          <t>17_C_gamma0.71_sharpness0.97_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,30 +1209,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9405345081238921</v>
+        <v>0.7346154776025129</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.54808808379005</v>
+        <v>0.5925658309544288</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.3224742610990803</v>
+        <v>10.49053148897511</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_gamma0.94_brightness27.0_sharpness0.32.jpg</t>
+          <t>18_P_gamma0.73_sharpness0.59_equalization10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.05662537194338</v>
+        <v>0.9715263446581798</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6160088050636541</v>
+        <v>0.9134549171602391</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10.81442945154958</v>
+        <v>27.07667016391482</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_contrast1.1_gamma0.62_equalization11.0.jpg</t>
+          <t>19_B_gamma0.97_sharpness0.91_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,15 +1293,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.917626366645427</v>
+        <v>0.5699212845536028</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.106556274748253</v>
+        <v>15.57455306294403</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.4374853226398676</v>
+        <v>0.6102109684101118</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_P_gamma0.92_contrast1.1_sharpness0.44.jpg</t>
+          <t>20_7_gamma0.57_brightness16.0_sharpness0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14.79284961732866</v>
+        <v>1.11917090404723</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8614693195707726</v>
+        <v>1.023868197413642</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.082547125030404</v>
+        <v>14.10628921962772</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_E_brightness15.0_contrast0.86_gamma1.1.jpg</t>
+          <t>21_1_contrast1.1_gamma1.0_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9692219753173938</v>
+        <v>1.012447192458958</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.854705246636826</v>
+        <v>0.09508848838361239</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>29.03424670761477</v>
+        <v>2.5809952007554</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_B_contrast0.97_sharpness0.85_equalization29.0.jpg</t>
+          <t>22_T_contrast1.0_sharpness0.095_brightness2.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8236206665329471</v>
+        <v>0.9542137175251795</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>14.81924409836764</v>
+        <v>0.7217428368901708</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.44141491326492</v>
+        <v>5.122720337551131</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_contrast0.82_brightness15.0_sharpness0.44.jpg</t>
+          <t>23_E_contrast0.95_gamma0.72_equalization5.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13.6481666709398</v>
+        <v>1.016106642130184</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.3142740358793388</v>
+        <v>0.7359308607120572</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.7534106006613563</v>
+        <v>12.42898795563395</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_brightness14.0_sharpness0.31_gamma0.75.jpg</t>
+          <t>24_I_contrast1.0_gamma0.74_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29.31532739069876</v>
+        <v>0.3428962738661145</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.167492904566346</v>
+        <v>1.092414164077718</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.7677766571546087</v>
+        <v>0.877715381452207</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_T_brightness29.0_contrast1.2_gamma0.77.jpg</t>
+          <t>25_S_sharpness0.34_contrast1.1_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.9116502708667139</v>
+        <v>25.38939299492494</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.064352016680143</v>
+        <v>0.1169030942940662</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>30.03662901687892</v>
+        <v>0.945761937649376</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_contrast0.91_gamma1.1_equalization30.0.jpg</t>
+          <t>26_T_brightness25.0_sharpness0.12_contrast0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.414613242150803</v>
+        <v>0.8415325990464548</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>24.82742740605229</v>
+        <v>1.104841674883487</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9332853402622155</v>
+        <v>17.31747617556395</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_7_sharpness0.41_brightness25.0_contrast0.93.jpg</t>
+          <t>27_T_gamma0.84_contrast1.1_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,16 +1620,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5495413064069902</v>
+        <v>1.165320523350064</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.7078111080456034</v>
+        <v>1.051108363838883</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16.42360897645849</v>
+        <v>0.4702939902689204</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_P_sharpness0.55_gamma0.71_equalization16.0.jpg</t>
+          <t>28_3_contrast1.2_gamma1.1_sharpness0.47.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2236745184537511</v>
+        <v>1.089040959683791</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.072999696579671</v>
+        <v>1.019839047058187</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>21.01793683405488</v>
+        <v>0.3886832890908095</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_E_sharpness0.22_contrast1.1_brightness21.0.jpg</t>
+          <t>29_0_contrast1.1_gamma1.0_sharpness0.39.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.005711813390308</v>
+        <v>0.4934069835991376</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>17.60398444762574</v>
+        <v>27.7487800651489</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.6894814270583706</v>
+        <v>0.7470625483617199</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_T_contrast1.0_brightness18.0_sharpness0.69.jpg</t>
+          <t>30_7_sharpness0.49_brightness28.0_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>21.50970364041049</v>
+        <v>0.988479397782575</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8739039124007943</v>
+        <v>1.024256540656382</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.06639331846487684</v>
+        <v>20.51649931158244</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_E_brightness22.0_gamma0.87_sharpness0.066.jpg</t>
+          <t>31_T_sharpness0.99_contrast1.0_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8794856796604162</v>
+        <v>0.7539688853994898</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.3499295791662084</v>
+        <v>0.2099995072762618</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>27.37255275442907</v>
+        <v>11.39051847067857</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_gamma0.88_sharpness0.35_equalization27.0.jpg</t>
+          <t>32_T_gamma0.75_sharpness0.21_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8413624054291945</v>
+        <v>0.8848764648697063</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9184869495698182</v>
+        <v>0.9451357656482999</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5.783315070148538</v>
+        <v>5.246264417400569</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_9_sharpness0.84_contrast0.92_equalization5.8.jpg</t>
+          <t>33_T_sharpness0.88_gamma0.95_equalization5.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8245526188199523</v>
+        <v>26.27314094344863</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9727077113052165</v>
+        <v>0.7661301669113396</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>14.16591073021986</v>
+        <v>1.069301621186604</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_gamma0.82_contrast0.97_equalization14.0.jpg</t>
+          <t>34_S_brightness26.0_gamma0.77_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9706193256700113</v>
+        <v>1.167204427772759</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8658417273037277</v>
+        <v>0.7640849406391372</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.8053504372362441</v>
+        <v>4.437383807665364</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_B_contrast0.97_gamma0.87_sharpness0.81.jpg</t>
+          <t>35_1_contrast1.2_gamma0.76_equalization4.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5074968436867254</v>
+        <v>0.5339742771695369</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.172565777111968</v>
+        <v>1.114200299488273</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5984177850025151</v>
+        <v>27.854759588643</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_sharpness0.51_contrast1.2_gamma0.6.jpg</t>
+          <t>36_2_sharpness0.53_contrast1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5594078243499865</v>
+        <v>0.9456520219139615</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5.653224314625947</v>
+        <v>0.7681726830386115</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.9943887232862249</v>
+        <v>30.71650942332619</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_3_sharpness0.56_brightness5.7_contrast0.99.jpg</t>
+          <t>37_I_contrast0.95_gamma0.77_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5384792850190172</v>
+        <v>0.01385044743161834</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.010150647092595</v>
+        <v>1.081669269993327</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>15.9449298256786</v>
+        <v>31.63565839197916</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_0_sharpness0.54_contrast1.0_equalization16.0.jpg</t>
+          <t>38_C_sharpness0.014_contrast1.1_equalization32.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5918426047672951</v>
+        <v>0.568619494696788</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.8981599220514842</v>
+        <v>1.146601458016742</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>31.1308917447745</v>
+        <v>24.60210119391183</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_S_gamma0.59_contrast0.9_equalization31.0.jpg</t>
+          <t>39_B_gamma0.57_contrast1.1_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.7191218055355207</v>
+        <v>20.9882031727946</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.053321148218407</v>
+        <v>0.3753308619371042</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>27.99831465312461</v>
+        <v>1.16559140887089</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_gamma0.72_contrast1.1_equalization28.0.jpg</t>
+          <t>40_P_brightness21.0_sharpness0.38_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8143638058263978</v>
+        <v>0.8278317986361481</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.909144452121981</v>
+        <v>0.8253539971177672</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>27.1601474363614</v>
+        <v>0.9799706953226703</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_contrast0.81_gamma0.91_brightness27.0.jpg</t>
+          <t>41_I_sharpness0.83_contrast0.83_gamma0.98.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8874105465973272</v>
+        <v>0.8868120780485345</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.1771555999170246</v>
+        <v>0.1874527666511571</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.03684988886251</v>
+        <v>16.1442049591128</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_9_gamma0.89_sharpness0.18_contrast1.0.jpg</t>
+          <t>42_P_gamma0.89_sharpness0.19_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8830673734954957</v>
+        <v>12.59570526874763</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6847001413620513</v>
+        <v>0.5416945472799811</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.8745885384915567</v>
+        <v>0.7973936024172121</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_contrast0.88_brightness0.68_sharpness0.87.jpg</t>
+          <t>43_I_brightness13.0_gamma0.54_sharpness0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>26.42025303836245</v>
+        <v>0.7980740209901842</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8903682426286138</v>
+        <v>0.6316938072436571</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.7078891474289074</v>
+        <v>0.8580458802657955</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_brightness26.0_contrast0.89_sharpness0.71.jpg</t>
+          <t>44_3_sharpness0.8_gamma0.63_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.7416108035162058</v>
+        <v>4.487559190009057</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22.97362981524336</v>
+        <v>1.000671461549894</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5081699228370168</v>
+        <v>0.4202488446181872</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_sharpness0.74_brightness23.0_gamma0.51.jpg</t>
+          <t>45_8_brightness4.5_gamma1.0_sharpness0.42.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.6086944236278754</v>
+        <v>1.193668581491008</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9238327590181654</v>
+        <v>0.89881056811041</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>14.75625985574869</v>
+        <v>24.80942368306126</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_0_gamma0.61_contrast0.92_brightness15.0.jpg</t>
+          <t>46_P_contrast1.2_sharpness0.9_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,30 +2427,30 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9102610075614144</v>
+        <v>0.9413918201661196</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>15.33485232121396</v>
+        <v>0.6723578625159348</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.5295714322156394</v>
+        <v>20.47959324228803</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_3_contrast0.91_brightness15.0_sharpness0.53.jpg</t>
+          <t>47_0_contrast0.94_sharpness0.67_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.2941905898582102</v>
+        <v>1.110604174312732</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.013940064512951</v>
+        <v>4.087168022325392</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9552084918397641</v>
+        <v>0.375153755084468</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_sharpness0.29_gamma1.0_contrast0.96.jpg</t>
+          <t>48_I_contrast1.1_brightness4.1_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
